--- a/My english vocabulary.xlsx
+++ b/My english vocabulary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Gena\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Gena\Documents\GitHub\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA22E59C-5F49-446D-A00A-1018B5E380DC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2F0DE6-82C0-437B-8063-0092A9F987F0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{9C0DBA5B-AABE-4FEA-9D40-AC7B434F2A93}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="323">
   <si>
     <t>to plug in</t>
   </si>
@@ -939,10 +940,61 @@
     <t>advance</t>
   </si>
   <si>
-    <t>продвижение</t>
-  </si>
-  <si>
     <t>продвижение, успех</t>
+  </si>
+  <si>
+    <t>liability</t>
+  </si>
+  <si>
+    <t>ответственность</t>
+  </si>
+  <si>
+    <t>do me a favor</t>
+  </si>
+  <si>
+    <t>you got to be kidding me</t>
+  </si>
+  <si>
+    <t>ты шутишь надо мной?</t>
+  </si>
+  <si>
+    <t>сделай мне одолжение, или услугу</t>
+  </si>
+  <si>
+    <t>rethink</t>
+  </si>
+  <si>
+    <t>передумать</t>
+  </si>
+  <si>
+    <t>can I look at it</t>
+  </si>
+  <si>
+    <t>могу я посмотреть на это?</t>
+  </si>
+  <si>
+    <t>what are you after</t>
+  </si>
+  <si>
+    <t>что ты хочешь,ищешь</t>
+  </si>
+  <si>
+    <t>Wacked</t>
+  </si>
+  <si>
+    <t>что-то странное</t>
+  </si>
+  <si>
+    <t>relentless</t>
+  </si>
+  <si>
+    <t>неустанный, непрекращающийся</t>
+  </si>
+  <si>
+    <t>map out</t>
+  </si>
+  <si>
+    <t>наметить</t>
   </si>
 </sst>
 </file>
@@ -1317,16 +1369,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89672B4-D95E-4F49-B4CD-006D68899548}">
-  <dimension ref="B2:D168"/>
+  <dimension ref="B2:D178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="D169" sqref="D169"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="D167" sqref="D167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="4" width="37.5703125" style="1" customWidth="1"/>
   </cols>
@@ -2603,12 +2655,84 @@
         <v>302</v>
       </c>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B168" t="s">
+    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
         <v>303</v>
       </c>
-      <c r="D168" s="3" t="s">
+      <c r="D169" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
         <v>305</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>307</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>308</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>311</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>313</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>315</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>317</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>319</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>321</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/My english vocabulary.xlsx
+++ b/My english vocabulary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Gena\Documents\GitHub\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2F0DE6-82C0-437B-8063-0092A9F987F0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FC98F9-B38F-44C6-A132-E6A20806404D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{9C0DBA5B-AABE-4FEA-9D40-AC7B434F2A93}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="355">
   <si>
     <t>to plug in</t>
   </si>
@@ -892,9 +891,6 @@
     <t>в непосредственной близости</t>
   </si>
   <si>
-    <t>hamlet</t>
-  </si>
-  <si>
     <t>шлем</t>
   </si>
   <si>
@@ -995,13 +991,112 @@
   </si>
   <si>
     <t>наметить</t>
+  </si>
+  <si>
+    <t xml:space="preserve">women love with ears </t>
+  </si>
+  <si>
+    <t>женщины любят ушами</t>
+  </si>
+  <si>
+    <t>halmet</t>
+  </si>
+  <si>
+    <t>deli bakery</t>
+  </si>
+  <si>
+    <t>магазин-пекарня</t>
+  </si>
+  <si>
+    <t>is committed</t>
+  </si>
+  <si>
+    <t>готов, совершается</t>
+  </si>
+  <si>
+    <t>slice</t>
+  </si>
+  <si>
+    <t>кусок, нарезать</t>
+  </si>
+  <si>
+    <t>possess</t>
+  </si>
+  <si>
+    <t>обладать</t>
+  </si>
+  <si>
+    <t>loan</t>
+  </si>
+  <si>
+    <t>кредит</t>
+  </si>
+  <si>
+    <t>addition</t>
+  </si>
+  <si>
+    <t>дополнение</t>
+  </si>
+  <si>
+    <t>primarily</t>
+  </si>
+  <si>
+    <t>в основном</t>
+  </si>
+  <si>
+    <t>affordable</t>
+  </si>
+  <si>
+    <t>доступный</t>
+  </si>
+  <si>
+    <t>agenda</t>
+  </si>
+  <si>
+    <t>план, повестка дня</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>пункты</t>
+  </si>
+  <si>
+    <t>Pastry</t>
+  </si>
+  <si>
+    <t>пироженные</t>
+  </si>
+  <si>
+    <t>dessert</t>
+  </si>
+  <si>
+    <t>десерт</t>
+  </si>
+  <si>
+    <t>кексы</t>
+  </si>
+  <si>
+    <t>Quiches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">place to grab </t>
+  </si>
+  <si>
+    <t>место, где можно взять</t>
+  </si>
+  <si>
+    <t>promote</t>
+  </si>
+  <si>
+    <t>продвигать</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1020,6 +1115,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF212121"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1A1C1E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF343742"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1046,7 +1157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1055,6 +1166,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1369,10 +1482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89672B4-D95E-4F49-B4CD-006D68899548}">
-  <dimension ref="B2:D178"/>
+  <dimension ref="B2:D196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="D167" sqref="D167"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="B197" sqref="B197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2492,7 +2605,7 @@
         <v>261</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.25">
@@ -2601,138 +2714,274 @@
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
+        <v>324</v>
+      </c>
+      <c r="D161" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
+        <v>289</v>
+      </c>
+      <c r="D162" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
+        <v>291</v>
+      </c>
+      <c r="D163" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
+        <v>294</v>
+      </c>
+      <c r="D164" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B165" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D165" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
+        <v>298</v>
+      </c>
+      <c r="D166" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
+        <v>300</v>
+      </c>
+      <c r="D167" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
+        <v>302</v>
+      </c>
+      <c r="D169" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
+        <v>304</v>
+      </c>
+      <c r="D170" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
+        <v>307</v>
+      </c>
+      <c r="D172" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
+        <v>310</v>
+      </c>
+      <c r="D173" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
+        <v>312</v>
+      </c>
+      <c r="D174" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
+        <v>314</v>
+      </c>
+      <c r="D175" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
+        <v>316</v>
+      </c>
+      <c r="D176" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
+        <v>318</v>
+      </c>
+      <c r="D177" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="178" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
+        <v>320</v>
+      </c>
+      <c r="D178" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D178" s="1" t="s">
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B180" s="4" t="s">
         <v>322</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>325</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>327</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>329</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>331</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
+        <v>333</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B186" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B187" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B188" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B189" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>341</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>343</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B192" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B193" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B194" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B195" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
+        <v>353</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>

--- a/My english vocabulary.xlsx
+++ b/My english vocabulary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Gena\Documents\GitHub\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FC98F9-B38F-44C6-A132-E6A20806404D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7879F6E-8283-449F-A4FF-AE746CAE5C30}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{9C0DBA5B-AABE-4FEA-9D40-AC7B434F2A93}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="454">
   <si>
     <t>to plug in</t>
   </si>
@@ -1090,13 +1091,310 @@
   </si>
   <si>
     <t>продвигать</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tremendosly </t>
+  </si>
+  <si>
+    <t>accordingly</t>
+  </si>
+  <si>
+    <t>convince</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>therefore</t>
+  </si>
+  <si>
+    <t>discarded</t>
+  </si>
+  <si>
+    <t>obsolete</t>
+  </si>
+  <si>
+    <t>absolescence</t>
+  </si>
+  <si>
+    <t>dump</t>
+  </si>
+  <si>
+    <t>потребитель</t>
+  </si>
+  <si>
+    <t>черезвычайно</t>
+  </si>
+  <si>
+    <t>клиент, потребитель</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>соответственно, таким образом</t>
+  </si>
+  <si>
+    <t>убедить, уговорить</t>
+  </si>
+  <si>
+    <t>однако, кстати</t>
+  </si>
+  <si>
+    <t>общий</t>
+  </si>
+  <si>
+    <t>поэтому, таким образом</t>
+  </si>
+  <si>
+    <t>отказаться</t>
+  </si>
+  <si>
+    <t>устаревший</t>
+  </si>
+  <si>
+    <t>устаревание, моральный износ</t>
+  </si>
+  <si>
+    <t>намеренно, умышленно</t>
+  </si>
+  <si>
+    <t>мусорка</t>
+  </si>
+  <si>
+    <t>deliberately</t>
+  </si>
+  <si>
+    <t>To be driven by passion</t>
+  </si>
+  <si>
+    <t> быть руководимым страстью</t>
+  </si>
+  <si>
+    <t>To get (damn) good at something</t>
+  </si>
+  <si>
+    <t>стать (чертовски) хорошим в чем-то</t>
+  </si>
+  <si>
+    <t>To put one’s nose down in something</t>
+  </si>
+  <si>
+    <t>погрузиться во что-либо</t>
+  </si>
+  <si>
+    <t>To push</t>
+  </si>
+  <si>
+    <t>толкать</t>
+  </si>
+  <si>
+    <t>Shyness</t>
+  </si>
+  <si>
+    <t>стеснительность</t>
+  </si>
+  <si>
+    <t>Self-doubts</t>
+  </si>
+  <si>
+    <t>сомнения в себе</t>
+  </si>
+  <si>
+    <t>Persist</t>
+  </si>
+  <si>
+    <t>упорствовать</t>
+  </si>
+  <si>
+    <t>Persistence</t>
+  </si>
+  <si>
+    <t>упорство, настойчивость</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>причина</t>
+  </si>
+  <si>
+    <t>To serve</t>
+  </si>
+  <si>
+    <t>служить</t>
+  </si>
+  <si>
+    <t>Privilege</t>
+  </si>
+  <si>
+    <t>привилегия</t>
+  </si>
+  <si>
+    <t>Focus</t>
+  </si>
+  <si>
+    <t>фокусироваться</t>
+  </si>
+  <si>
+    <t>Nothing comes easy</t>
+  </si>
+  <si>
+    <t>ничто не приходит легко</t>
+  </si>
+  <si>
+    <t>Hard work</t>
+  </si>
+  <si>
+    <t>тяжелая работа</t>
+  </si>
+  <si>
+    <t>Rejection</t>
+  </si>
+  <si>
+    <t>отказ, отклонение, непринятие, самоотвод, браковка, признание негодным, извержение</t>
+  </si>
+  <si>
+    <t>Asshole</t>
+  </si>
+  <si>
+    <t>кретин, придурок</t>
+  </si>
+  <si>
+    <t>self-described</t>
+  </si>
+  <si>
+    <t>представляющийся самодостаточный</t>
+  </si>
+  <si>
+    <t>Spreading</t>
+  </si>
+  <si>
+    <t>распространение</t>
+  </si>
+  <si>
+    <t>preset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">explicity </t>
+  </si>
+  <si>
+    <t>instruct</t>
+  </si>
+  <si>
+    <t>implied</t>
+  </si>
+  <si>
+    <t>valued</t>
+  </si>
+  <si>
+    <t>scratches appear</t>
+  </si>
+  <si>
+    <t>color fade</t>
+  </si>
+  <si>
+    <t>planting falls off</t>
+  </si>
+  <si>
+    <t>worn-out</t>
+  </si>
+  <si>
+    <t>shabby</t>
+  </si>
+  <si>
+    <t>incompatibility</t>
+  </si>
+  <si>
+    <t>flaw</t>
+  </si>
+  <si>
+    <t>outmoded</t>
+  </si>
+  <si>
+    <t>reciept</t>
+  </si>
+  <si>
+    <t>malfunction</t>
+  </si>
+  <si>
+    <t>e-waste</t>
+  </si>
+  <si>
+    <t>bothersome</t>
+  </si>
+  <si>
+    <t>notice</t>
+  </si>
+  <si>
+    <t>устанавливать заранее</t>
+  </si>
+  <si>
+    <t>явный</t>
+  </si>
+  <si>
+    <t>инструктировать, обучать</t>
+  </si>
+  <si>
+    <t>предполагаемый</t>
+  </si>
+  <si>
+    <t>ценный</t>
+  </si>
+  <si>
+    <t>появление царапин</t>
+  </si>
+  <si>
+    <t>выгорание цвета</t>
+  </si>
+  <si>
+    <t>abrasions ocсur</t>
+  </si>
+  <si>
+    <t>появление потертостей</t>
+  </si>
+  <si>
+    <t>сколы покрытия</t>
+  </si>
+  <si>
+    <t>изнашивается</t>
+  </si>
+  <si>
+    <t>потертый</t>
+  </si>
+  <si>
+    <t>несовместимость</t>
+  </si>
+  <si>
+    <t>недостаток</t>
+  </si>
+  <si>
+    <t>чек</t>
+  </si>
+  <si>
+    <t>отказ</t>
+  </si>
+  <si>
+    <t>электронный мусор</t>
+  </si>
+  <si>
+    <t>надоедливый, докучливый, беспокойный</t>
+  </si>
+  <si>
+    <t>уведомление, извещение,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1106,14 +1404,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF1A1C1E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF343742"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF213646"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FF212121"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1121,16 +1459,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF1A1C1E"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF343742"/>
+      <sz val="14"/>
+      <color rgb="FF1A1A1A"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1157,17 +1487,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1482,1506 +1831,1907 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89672B4-D95E-4F49-B4CD-006D68899548}">
-  <dimension ref="B2:D196"/>
+  <dimension ref="B2:D249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="B197" sqref="B197"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="D238" sqref="D238"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="37.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="8" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B54" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B55" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B56" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B57" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B58" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B59" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B60" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B61" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B62" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B64" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B65" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B68" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B69" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B70" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B71" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="8" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B72" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B73" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B74" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B75" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B76" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="8" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B77" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B78" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="8" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B79" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B80" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="8" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B81" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="8" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B82" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="8" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B83" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="8" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B85" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B86" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" s="8" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B87" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="8" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B88" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" s="8" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B89" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="8" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B90" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B91" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B92" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" s="8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B93" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" s="8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B94" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" s="8" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B95" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B96" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" s="8" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B97" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" s="8" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B98" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B99" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" s="8" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B100" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" s="8" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B101" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D101" s="8" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B102" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D102" s="8" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B103" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D103" s="8" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B105" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" s="8" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B106" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D106" s="8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B107" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" s="8" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B108" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D108" s="8" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B109" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D109" s="8" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B110" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D110" s="8" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B111" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D111" s="8" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B112" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D112" s="8" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B113" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D113" s="8" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B114" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D114" s="8" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B115" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D115" s="8" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B116" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D116" s="8" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B117" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D117" s="8" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B118" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D118" s="8" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B119" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D119" s="8" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B120" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D120" s="8" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B121" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="D121" s="8" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B122" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D122" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B123" t="s">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B123" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D123" s="8" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B124" t="s">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B124" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D124" s="8" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B125" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D125" s="8" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B127" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D127" s="8" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B128" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="D128" s="8" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B129" t="s">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B129" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D129" s="8" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B130" t="s">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B130" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D130" s="8" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
+    <row r="131" spans="2:4" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B131" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D131" s="8" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B132" t="s">
+    <row r="132" spans="2:4" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B132" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="D132" s="8" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B133" t="s">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B133" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="D133" s="8" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B134" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="D134" s="8" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B135" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="D135" s="8" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B136" t="s">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B136" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="D136" s="8" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B137" t="s">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B137" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D137" s="1">
+      <c r="D137" s="8">
         <v>2006</v>
       </c>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B138" t="s">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B138" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="D138" s="8" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B139" t="s">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B139" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="D139" s="8" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B140" t="s">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B140" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="D140" s="8" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B141" t="s">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B141" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="D141" s="8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B142" t="s">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B142" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="D142" s="8" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B143" t="s">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B143" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="D143" s="8" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B144" t="s">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B144" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="D144" s="8" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B145" t="s">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B145" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="D145" s="8" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
+    <row r="146" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B146" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="D146" s="8" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B148" t="s">
+    <row r="148" spans="2:4" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B148" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="D148" s="8" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B149" t="s">
+    <row r="149" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B149" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="D149" s="8" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B150" t="s">
+    <row r="150" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B150" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D150" s="8" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B151" t="s">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B151" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D151" s="8" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B152" t="s">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B152" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="D152" s="8" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B153" t="s">
+    <row r="153" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B153" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="D153" s="8" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B154" t="s">
+    <row r="154" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B154" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="D154" s="8" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B155" t="s">
+    <row r="155" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B155" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="D155" s="8" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B156" t="s">
+    <row r="156" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B156" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="D156" s="8" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B157" t="s">
+    <row r="157" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B157" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="D157" s="8" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B158" t="s">
+    <row r="158" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B158" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="D158" s="8" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B159" t="s">
+    <row r="159" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B159" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="D159" s="8" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B160" t="s">
+    <row r="160" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B160" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="D160" s="8" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B161" t="s">
+    <row r="161" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B161" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="D161" s="8" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B162" t="s">
+    <row r="162" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B162" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="D162" s="8" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B163" t="s">
+    <row r="163" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B163" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="D163" s="8" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B164" t="s">
+    <row r="164" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B164" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="D164" s="8" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B165" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="D165" s="8" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B166" t="s">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B166" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="D166" s="8" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B167" t="s">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B167" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="D167" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B169" t="s">
+    <row r="169" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B169" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D169" s="3" t="s">
+      <c r="D169" s="9" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B170" t="s">
+    <row r="170" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B170" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="D170" s="8" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B171" t="s">
+    <row r="171" spans="2:4" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B171" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="D171" s="8" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B172" t="s">
+    <row r="172" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B172" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="D172" s="8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B173" t="s">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B173" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="D173" s="8" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B174" t="s">
+    <row r="174" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B174" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="D174" s="8" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B175" t="s">
+    <row r="175" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B175" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="D175" s="1" t="s">
+      <c r="D175" s="8" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B176" t="s">
+    <row r="176" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B176" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="D176" s="8" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B177" t="s">
+    <row r="177" spans="2:4" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B177" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="D177" s="8" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B178" t="s">
+    <row r="178" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B178" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="D178" s="8" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B180" s="4" t="s">
+    <row r="180" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B180" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="D180" s="8" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B181" t="s">
+    <row r="181" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B181" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="D181" s="8" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B182" t="s">
+    <row r="182" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B182" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="D182" s="8" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B183" t="s">
+    <row r="183" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B183" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="D183" s="8" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B184" t="s">
+    <row r="184" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B184" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="D184" s="8" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B185" t="s">
+    <row r="185" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B185" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="D185" s="8" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="186" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B186" s="5" t="s">
+    <row r="186" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B186" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="D186" s="8" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="187" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B187" s="5" t="s">
+    <row r="187" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B187" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="D187" s="8" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="188" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B188" s="5" t="s">
+    <row r="188" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B188" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="D188" s="1" t="s">
+      <c r="D188" s="8" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="189" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B189" s="5" t="s">
+    <row r="189" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B189" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="D189" s="1" t="s">
+      <c r="D189" s="8" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B190" t="s">
+    <row r="190" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B190" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D190" s="1" t="s">
+      <c r="D190" s="8" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B191" t="s">
+    <row r="191" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B191" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D191" s="1" t="s">
+      <c r="D191" s="8" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="192" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B192" s="5" t="s">
+    <row r="192" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B192" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="D192" s="1" t="s">
+      <c r="D192" s="8" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="193" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B193" s="5" t="s">
+    <row r="193" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B193" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="D193" s="8" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="194" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B194" s="5" t="s">
+    <row r="194" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B194" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="D194" s="1" t="s">
+      <c r="D194" s="8" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="195" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B195" s="5" t="s">
+    <row r="195" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B195" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="D195" s="1" t="s">
+      <c r="D195" s="8" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B196" t="s">
+    <row r="196" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B196" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="D196" s="1" t="s">
+      <c r="D196" s="8" t="s">
         <v>354</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B198" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D198" s="8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B199" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D199" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B200" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="D200" s="8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B201" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="D201" s="8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B202" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="D202" s="8" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B203" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="D203" s="8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B204" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="D204" s="8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B205" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="D205" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B206" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D206" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B207" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D207" s="8" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="208" spans="2:4" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B208" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="D208" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B209" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D209" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B210" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D210" s="8" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B212" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="D212" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B213" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="D213" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="214" spans="2:4" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B214" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="D214" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="215" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B215" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D215" s="8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="216" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B216" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D216" s="8" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="217" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B217" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D217" s="8" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B218" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D218" s="8" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="219" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B219" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D219" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="220" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B220" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="221" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B221" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D221" s="8" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="222" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B222" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D222" s="8" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="223" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B223" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D223" s="8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="224" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B224" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D224" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="225" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B225" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D225" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="226" spans="2:4" ht="75" x14ac:dyDescent="0.3">
+      <c r="B226" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="D226" s="8" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="227" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B227" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D227" s="8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="228" spans="2:4" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B228" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D228" s="8" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="229" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B229" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D229" s="8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="231" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B231" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D231" s="8" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="232" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B232" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D232" s="8" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="233" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B233" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D233" s="8" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="234" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B234" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D234" s="8" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="235" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B235" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D235" s="8" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="236" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B236" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D236" s="8" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="237" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B237" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D237" s="8" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="238" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B238" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D238" s="8" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="239" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B239" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D239" s="8" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="240" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B240" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D240" s="8" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="241" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B241" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D241" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="242" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B242" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D242" s="8" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="243" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B243" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D243" s="8" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="244" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B244" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D244" s="8" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="245" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B245" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D245" s="8" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="246" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B246" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D246" s="8" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="247" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B247" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D247" s="8" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="248" spans="2:4" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B248" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D248" s="10" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="249" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B249" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D249" s="10" t="s">
+        <v>453</v>
       </c>
     </row>
   </sheetData>

--- a/My english vocabulary.xlsx
+++ b/My english vocabulary.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Gena\Documents\GitHub\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7879F6E-8283-449F-A4FF-AE746CAE5C30}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A2854B-DAD3-4081-A28C-D6425F0F690B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{9C0DBA5B-AABE-4FEA-9D40-AC7B434F2A93}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9C0DBA5B-AABE-4FEA-9D40-AC7B434F2A93}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="456">
   <si>
     <t>to plug in</t>
   </si>
@@ -1388,6 +1387,12 @@
   </si>
   <si>
     <t>уведомление, извещение,</t>
+  </si>
+  <si>
+    <t>Claim</t>
+  </si>
+  <si>
+    <t>иск, претензия, рекламация</t>
   </si>
 </sst>
 </file>
@@ -1831,10 +1836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89672B4-D95E-4F49-B4CD-006D68899548}">
-  <dimension ref="B2:D249"/>
+  <dimension ref="B2:D250"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="D238" sqref="D238"/>
+      <selection activeCell="D246" sqref="D246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -3734,6 +3739,14 @@
         <v>453</v>
       </c>
     </row>
+    <row r="250" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B250" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D250" s="8" t="s">
+        <v>455</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
